--- a/LinkedIn-Data-Extracter/bin/Debug/netcoreapp3.1/OutputFile.xlsx
+++ b/LinkedIn-Data-Extracter/bin/Debug/netcoreapp3.1/OutputFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <x:si>
     <x:t>CompanyName</x:t>
   </x:si>
@@ -50,6 +50,486 @@
   </x:si>
   <x:si>
     <x:t>EmployeeCompanyEmailId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bay Path University</x:t>
+  </x:si>
+  <x:si>
+    <x:t>United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Berkeley Analytical</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Research</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alfred Hodgson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Co-founder, Research Director</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Richmond, California, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Raja Tannous</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Co-Founder &amp; Laboratory Director</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wei Cheng</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lab Engineer Technician</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bio Huma Netics, Inc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BIONPHARMA, INC.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BioPharmX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carole Adams</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sr. Director of Operations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>San Francisco Bay Area</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BiopharmX, Inc.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jim Pekarsky</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CEO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menlo Park, California, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jeff Prior</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Principal Scientist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redwood City, California, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G. Scott Herron, Ph.D., M.D.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Medical Direcor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stanford, California, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BiopharmX Administrator</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Owner</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mountain View, California, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bio-Rad Laboratories</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Research,Purchasing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thomas Ro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R&amp;D Scientist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Irvine, California, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lei Li</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R&amp;D Manager</x:t>
+  </x:si>
+  <x:si>
+    <x:t>San Francisco, California, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Michael Hammer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Associate Director of Information Technology</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stuart Young</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Director, Engineering - Digital Biology Group</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pleasanton, California, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Harmeet Arora</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Global Marketing Analytics Manager</x:t>
+  </x:si>
+  <x:si>
+    <x:t>San Ramon, California, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kasey Rogers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cell Biology US Sales Manager</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sudbury, Massachusetts, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Darren Link</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VP R&amp;D Digital Biology Group</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xu Han</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sr Scientist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hercules, California, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yu Hong</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Senior Scientist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Detroit Metropolitan Area</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chien-Hung Chiang</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Heather Manza</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scientist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Northville, Michigan, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gretchen Lam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ann Arbor, Michigan, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yingshu (Sue) He</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thomas Kausrud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Director, Global Commodities Strategy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Elaheh Shekaramiz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Los Angeles, California, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mark Holzmann</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Director of Procurement for the Americas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vallejo, California, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lei Huang</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nyaradzo Dzvova, Ph.D.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Senior Scientist - Molecular Diagnostics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mark Marles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Southeast Regional Manager, Life Science Group</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wake Forest, North Carolina, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>F Kevin Kohlmeier</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Broomfield, Colorado, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kyle Thurston</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Staff Scientist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Adada</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Director of Software &amp; Analytics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marta Gonzalez-Hernandez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Matthew Kosak</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chemist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Huntington Beach, California, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prasanthi Bhagavatula</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BioZone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rob Miller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beverly Hills, California, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BioZone Tech</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BlueWillow Biologics, Inc.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Boston Pharmaceuticals</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maria Brennan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SVP, Head of Human Resources</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clark, New Jersey, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glenna M. Pasinosky, PHRca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Resources Coordinator</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Boston, Massachusetts, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aninel Garcia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CMC Strategic Sourcing Director</x:t>
+  </x:si>
+  <x:si>
+    <x:t>West New York, New Jersey, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Craig Basson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Co-Chief Executive Officer (ad interim)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cambridge, Massachusetts, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valerie Dodane</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vice President Medical Affairs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New York City Metropolitan Area</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tatjana Odrljin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vice President Clinical Research</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Greater Boston</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karen A.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Senior Director, Clinical Operations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Medford, Massachusetts, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kerry Hawitt Ph.D.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SVP Quality &amp; Compliance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Belvedere Tiburon, California, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zamaneh Mikhak, MD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vice President, Clinical Development</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amir Tooreseenin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vice President, Head of Corporate Development</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lakshmi Amaravadi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VP, Head of Translational Medicine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Joseph Connolly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Senior Director, Analytical CMC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Joanne Tzouvalopoulos Beck</x:t>
+  </x:si>
+  <x:si>
+    <x:t>co- Chief Executive Officer (ad interim) &amp; Chief Operating Officer at Boston Pharmaceuticals</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brenda Jeglinski</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VP, Head of Clinical Operations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Corinne Hogseth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Senior Director Clinical Financial Analysis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Acton, Massachusetts, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Laverne Auguste, BSBA, MBA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Global R&amp;D Strategic Sourcing/Procurement, Senior Director</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Igor Quinones-Garcia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vice President Technical Operations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Westford, Massachusetts, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tracy Olson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vice President Program and Portfolio Management</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Winchester, Massachusetts, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmad Yaghmour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clinical Trial Associate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Braintree, Massachusetts, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mitchell Keegan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Senior Vice President, Clinical Development &amp; Head of Research &amp; Development Strategic Planning</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Swapan Chowdhury</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Head, Drug Metabolism and PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Haroon Hashmi, PhD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Senior Vice President, Head of Regulatory Affairs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Southborough, Massachusetts, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alan Jacobs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vice President Clinical Development</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carol Nielsen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clinical Strategic Sourcing Lead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deerfield, Illinois, United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eric Brophy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT Manager</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quincy, Massachusetts, United States</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -113,8 +593,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="A1:L2" totalsRowShown="0">
-  <x:autoFilter ref="A1:L2"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="A1:L64" totalsRowShown="0">
+  <x:autoFilter ref="A1:L64"/>
   <x:tableColumns count="12">
     <x:tableColumn id="1" name="CompanyName"/>
     <x:tableColumn id="2" name="LocationName"/>
@@ -421,7 +901,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:L3"/>
+  <x:dimension ref="A1:L64"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -463,6 +943,1302 @@
       </x:c>
       <x:c r="L1" s="0" t="s">
         <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:12">
+      <x:c r="A2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:12">
+      <x:c r="A3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:12">
+      <x:c r="A4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:12">
+      <x:c r="A5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:12">
+      <x:c r="A6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:12">
+      <x:c r="A7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:12">
+      <x:c r="A8" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:12">
+      <x:c r="A9" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:12">
+      <x:c r="A10" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:12">
+      <x:c r="A11" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:12">
+      <x:c r="A12" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:12">
+      <x:c r="A13" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:12">
+      <x:c r="A14" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:12">
+      <x:c r="A15" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:12">
+      <x:c r="A16" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:12">
+      <x:c r="A17" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:12">
+      <x:c r="A18" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="J18" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:12">
+      <x:c r="A19" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="J19" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:12">
+      <x:c r="A20" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="J20" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:12">
+      <x:c r="A21" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="J21" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:12">
+      <x:c r="A22" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J22" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:12">
+      <x:c r="A23" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J23" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:12">
+      <x:c r="A24" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="J24" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:12">
+      <x:c r="A25" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J25" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:12">
+      <x:c r="A26" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="J26" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:12">
+      <x:c r="A27" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="J27" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:12">
+      <x:c r="A28" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="J28" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:12">
+      <x:c r="A29" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="I29" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J29" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:12">
+      <x:c r="A30" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I30" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J30" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:12">
+      <x:c r="A31" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="I31" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="J31" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:12">
+      <x:c r="A32" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="I32" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="J32" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:12">
+      <x:c r="A33" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="I33" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="J33" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:12">
+      <x:c r="A34" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="I34" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J34" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:12">
+      <x:c r="A35" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I35" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="J35" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:12">
+      <x:c r="A36" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I36" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="J36" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:12">
+      <x:c r="A37" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="I37" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="J37" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:12">
+      <x:c r="A38" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="I38" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="J38" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:12">
+      <x:c r="A39" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:12">
+      <x:c r="A40" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="I40" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="J40" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:12">
+      <x:c r="A41" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I41" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="J41" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:12">
+      <x:c r="A42" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="I42" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="J42" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:12">
+      <x:c r="A43" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="I43" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="J43" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:12">
+      <x:c r="A44" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="I44" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="J44" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:12">
+      <x:c r="A45" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="I45" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="J45" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:12">
+      <x:c r="A46" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="I46" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="J46" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:12">
+      <x:c r="A47" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="J47" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:12">
+      <x:c r="A48" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="I48" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="J48" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:12">
+      <x:c r="A49" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="J49" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:12">
+      <x:c r="A50" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="I50" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="J50" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:12">
+      <x:c r="A51" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="J51" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:12">
+      <x:c r="A52" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="I52" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="J52" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:12">
+      <x:c r="A53" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="H53" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="I53" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="J53" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:12">
+      <x:c r="A54" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="I54" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="J54" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:12">
+      <x:c r="A55" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="I55" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="J55" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:12">
+      <x:c r="A56" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="I56" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="J56" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:12">
+      <x:c r="A57" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="H57" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="I57" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="J57" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:12">
+      <x:c r="A58" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="I58" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="J58" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:12">
+      <x:c r="A59" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="H59" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="I59" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="J59" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:12">
+      <x:c r="A60" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="H60" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="I60" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="J60" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:12">
+      <x:c r="A61" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="H61" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="I61" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="J61" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:12">
+      <x:c r="A62" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G62" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="H62" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="I62" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="J62" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:12">
+      <x:c r="A63" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G63" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="H63" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="I63" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="J63" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:12">
+      <x:c r="A64" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G64" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="H64" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="I64" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="J64" s="0" t="s">
+        <x:v>106</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
